--- a/data/publications_source.xlsx
+++ b/data/publications_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seong-Yong Cheon\Dropbox\12. 연구실적 정리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7340B3B4-4BBA-436D-AA7A-4FBE95C845A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74A6096-A4F2-4F69-8F72-F8F5847077E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB1E42D7-1A00-48FC-902B-DD82F2A226BD}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="JCR update_25.09.03" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'논문 update_25.09.03'!$A$1:$K$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'논문 update_25.09.03'!$A$1:$K$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="229">
   <si>
     <t>0196-8904</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -947,6 +947,14 @@
   </si>
   <si>
     <t>622-629</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASHRAE conference</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experimental Investigation of Vacuum-Based Membrane Dehumidification and Evaporative Cooling-Assisted Dedicated Outdoor Air System</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1492,6 +1500,9 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1511,9 +1522,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1832,7 +1840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C1F257-E950-4B3B-ADE8-D760AB7D592E}">
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -1925,7 +1933,7 @@
         <f>IFERROR(VLOOKUP(TRIM(D2),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
         <v>2.3391812865497075</v>
       </c>
-      <c r="L2" s="53"/>
+      <c r="L2" s="46"/>
       <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18">
@@ -1942,8 +1950,8 @@
       <c r="D3" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>70</v>
+      <c r="E3" s="10">
+        <v>2025</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>166</v>
@@ -1963,7 +1971,7 @@
       <c r="K3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="53"/>
+      <c r="L3" s="46"/>
       <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:18">
@@ -1972,64 +1980,50 @@
         <v>3</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>50</v>
+        <v>228</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>67</v>
+        <v>227</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2025</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="H4" s="10">
-        <v>4</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" s="10">
-        <f>IFERROR(VLOOKUP(TRIM(D4),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>6.9</v>
-      </c>
-      <c r="K4" s="45">
-        <f>IFERROR(VLOOKUP(TRIM(D4),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>4.9450549450549453</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>139</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="46"/>
       <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="44">
-        <f t="shared" ref="A5:A44" si="0">ROW()-1</f>
+        <f>ROW()-1</f>
         <v>4</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H5" s="10">
         <v>4</v>
@@ -2039,24 +2033,24 @@
       </c>
       <c r="J5" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D5),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="K5" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D5),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>5.4644808743169397</v>
+        <v>4.9450549450549453</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="44">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A6:A45" si="0">ROW()-1</f>
         <v>5</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>50</v>
@@ -2065,19 +2059,19 @@
         <v>5</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H6" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J6" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D6),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
@@ -2088,7 +2082,7 @@
         <v>5.4644808743169397</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="R6" s="8"/>
     </row>
@@ -2098,75 +2092,81 @@
         <v>6</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H7" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J7" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D7),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="K7" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D7),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>4.9450549450549453</v>
+        <v>5.4644808743169397</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>137</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="41">
+      <c r="A8" s="44">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>48</v>
+      <c r="B8" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>50</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="6" t="str">
+        <v>14</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="10">
+        <v>4</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D8),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="K8" s="38" t="str">
+        <v>6.9</v>
+      </c>
+      <c r="K8" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D8),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>-</v>
+        <v>4.9450549450549453</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2175,7 +2175,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>48</v>
@@ -2183,11 +2183,11 @@
       <c r="D9" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>70</v>
+      <c r="E9" s="6">
+        <v>2024</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
@@ -2210,24 +2210,22 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
+      <c r="B10" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>70</v>
+      <c r="D10" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2024</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>178</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
         <v>70</v>
       </c>
@@ -2244,44 +2242,41 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="44">
+      <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11" s="10">
-        <v>5</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2023</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D11),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>7.4</v>
-      </c>
-      <c r="K11" s="45">
+        <v>-</v>
+      </c>
+      <c r="K11" s="38" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D11),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>5.4644808743169397</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>147</v>
+        <v>-</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2290,39 +2285,39 @@
         <v>11</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H12" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>87</v>
       </c>
       <c r="J12" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D12),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="K12" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D12),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>4.9450549450549453</v>
+        <v>5.4644808743169397</v>
       </c>
       <c r="L12" s="40" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2331,39 +2326,39 @@
         <v>12</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>72</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H13" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>87</v>
       </c>
       <c r="J13" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D13),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>9.1</v>
+        <v>6.9</v>
       </c>
       <c r="K13" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D13),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>17.647058823529413</v>
+        <v>4.9450549450549453</v>
       </c>
       <c r="L13" s="40" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2372,39 +2367,39 @@
         <v>13</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H14" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>87</v>
       </c>
       <c r="J14" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D14),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>6.9</v>
+        <v>9.1</v>
       </c>
       <c r="K14" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D14),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>4.9450549450549453</v>
+        <v>17.647058823529413</v>
       </c>
       <c r="L14" s="40" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2413,7 +2408,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>50</v>
@@ -2422,16 +2417,16 @@
         <v>14</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H15" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>87</v>
@@ -2445,43 +2440,48 @@
         <v>4.9450549450549453</v>
       </c>
       <c r="L15" s="40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="41">
+      <c r="A16" s="44">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="6" t="str">
+      <c r="B16" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H16" s="10">
+        <v>3</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D16),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="K16" s="38" t="str">
+        <v>6.9</v>
+      </c>
+      <c r="K16" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D16),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>-</v>
+        <v>4.9450549450549453</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2490,7 +2490,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>48</v>
@@ -2498,11 +2498,11 @@
       <c r="D17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>70</v>
+      <c r="E17" s="6">
+        <v>2023</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6" t="s">
@@ -2521,123 +2521,118 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="44">
+      <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="H18" s="10">
-        <v>3</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18" s="10">
+      <c r="B18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2023</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D18),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>10.9</v>
-      </c>
-      <c r="K18" s="45">
+        <v>-</v>
+      </c>
+      <c r="K18" s="38" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D18),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>2.3391812865497075</v>
-      </c>
-      <c r="L18" s="40" t="s">
-        <v>143</v>
+        <v>-</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="41">
+      <c r="A19" s="44">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" s="6" t="str">
+      <c r="B19" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H19" s="10">
+        <v>3</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D19),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="K19" s="38" t="str">
+        <v>10.9</v>
+      </c>
+      <c r="K19" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D19),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>-</v>
+        <v>2.3391812865497075</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="44">
+      <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="H20" s="10">
-        <v>3</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20" s="10">
+      <c r="B20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2023</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D20),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>10.9</v>
-      </c>
-      <c r="K20" s="45">
+        <v>-</v>
+      </c>
+      <c r="K20" s="38" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D20),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>2.3391812865497075</v>
-      </c>
-      <c r="L20" s="40" t="s">
-        <v>142</v>
+        <v>-</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2646,39 +2641,39 @@
         <v>20</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C21" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H21" s="10">
         <v>3</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J21" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D21),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>6.9</v>
+        <v>10.9</v>
       </c>
       <c r="K21" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D21),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>4.9450549450549453</v>
+        <v>2.3391812865497075</v>
       </c>
       <c r="L21" s="40" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2687,7 +2682,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>50</v>
@@ -2696,19 +2691,19 @@
         <v>14</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H22" s="10">
         <v>3</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J22" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D22),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
@@ -2719,7 +2714,7 @@
         <v>4.9450549450549453</v>
       </c>
       <c r="L22" s="40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2728,195 +2723,195 @@
         <v>22</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H23" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J23" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D23),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>9.1</v>
+        <v>6.9</v>
       </c>
       <c r="K23" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D23),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>17.647058823529413</v>
+        <v>4.9450549450549453</v>
       </c>
       <c r="L23" s="40" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="41">
+      <c r="A24" s="44">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24" s="6" t="str">
+      <c r="B24" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H24" s="10">
+        <v>4</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D24),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="K24" s="38" t="str">
+        <v>9.1</v>
+      </c>
+      <c r="K24" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D24),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>-</v>
+        <v>17.647058823529413</v>
+      </c>
+      <c r="L24" s="40" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="44">
+      <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="H25" s="10">
-        <v>3</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J25" s="10">
+      <c r="B25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D25),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>10.9</v>
-      </c>
-      <c r="K25" s="45">
+        <v>-</v>
+      </c>
+      <c r="K25" s="38" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D25),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>2.3391812865497075</v>
-      </c>
-      <c r="L25" s="40" t="s">
-        <v>141</v>
+        <v>-</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="41">
+      <c r="A26" s="44">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J26" s="6" t="str">
+      <c r="B26" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="H26" s="10">
+        <v>3</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D26),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="K26" s="38" t="str">
+        <v>10.9</v>
+      </c>
+      <c r="K26" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D26),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>-</v>
+        <v>2.3391812865497075</v>
+      </c>
+      <c r="L26" s="40" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="44">
+      <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="H27" s="10">
-        <v>4</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J27" s="10">
+      <c r="B27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D27),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>6.9</v>
-      </c>
-      <c r="K27" s="45">
+        <v>-</v>
+      </c>
+      <c r="K27" s="38" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D27),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>4.9450549450549453</v>
-      </c>
-      <c r="L27" s="40" t="s">
-        <v>131</v>
+        <v>-</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2925,7 +2920,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>50</v>
@@ -2934,16 +2929,16 @@
         <v>14</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H28" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>87</v>
@@ -2957,7 +2952,7 @@
         <v>4.9450549450549453</v>
       </c>
       <c r="L28" s="40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2966,77 +2961,80 @@
         <v>28</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H29" s="10">
         <v>3</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J29" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D29),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>10.9</v>
+        <v>6.9</v>
       </c>
       <c r="K29" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D29),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>2.3391812865497075</v>
+        <v>4.9450549450549453</v>
       </c>
       <c r="L29" s="40" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="41">
+      <c r="A30" s="44">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J30" s="6" t="str">
+      <c r="B30" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" s="10">
+        <v>3</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J30" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D30),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="K30" s="38" t="str">
+        <v>10.9</v>
+      </c>
+      <c r="K30" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D30),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>-</v>
+        <v>2.3391812865497075</v>
+      </c>
+      <c r="L30" s="40" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3045,7 +3043,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>48</v>
@@ -3053,14 +3051,14 @@
       <c r="D31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>70</v>
+      <c r="E31" s="6">
+        <v>2021</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>70</v>
@@ -3083,22 +3081,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>70</v>
+        <v>58</v>
+      </c>
+      <c r="E32" s="6">
+        <v>2021</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>70</v>
@@ -3116,44 +3114,41 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="44">
+      <c r="A33" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="H33" s="10">
-        <v>3</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="J33" s="10">
+      <c r="B33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="6">
+        <v>2019</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D33),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>9.4</v>
-      </c>
-      <c r="K33" s="45">
+        <v>-</v>
+      </c>
+      <c r="K33" s="38" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D33),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>3.7974683544303796</v>
-      </c>
-      <c r="L33" s="40" t="s">
-        <v>144</v>
+        <v>-</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3162,75 +3157,80 @@
         <v>33</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H34" s="10">
         <v>3</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J34" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D34),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>6.9</v>
+        <v>9.4</v>
       </c>
       <c r="K34" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D34),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>4.9450549450549453</v>
+        <v>3.7974683544303796</v>
       </c>
       <c r="L34" s="40" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="41">
+      <c r="A35" s="44">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J35" s="6" t="str">
+      <c r="B35" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="H35" s="10">
+        <v>3</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J35" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D35),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="K35" s="38" t="str">
+        <v>6.9</v>
+      </c>
+      <c r="K35" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D35),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>-</v>
+        <v>4.9450549450549453</v>
+      </c>
+      <c r="L35" s="40" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3239,23 +3239,21 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="E36" s="6">
+        <v>2019</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>218</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G36" s="6"/>
       <c r="H36" s="6" t="s">
         <v>70</v>
       </c>
@@ -3277,21 +3275,23 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>70</v>
+        <v>53</v>
+      </c>
+      <c r="E37" s="6">
+        <v>2019</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G37" s="6"/>
+        <v>217</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="H37" s="6" t="s">
         <v>70</v>
       </c>
@@ -3313,19 +3313,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="E38" s="6">
+        <v>2019</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6" t="s">
@@ -3344,80 +3344,80 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="44">
+      <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="H39" s="10">
-        <v>3</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J39" s="10">
+      <c r="B39" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="6">
+        <v>2019</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D39),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>3.2</v>
-      </c>
-      <c r="K39" s="45">
+        <v>-</v>
+      </c>
+      <c r="K39" s="38" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D39),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>61.53846153846154</v>
-      </c>
-      <c r="L39" s="40" t="s">
-        <v>127</v>
+        <v>-</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="41">
+      <c r="A40" s="44">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J40" s="6" t="str">
+      <c r="B40" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H40" s="10">
+        <v>3</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J40" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D40),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="K40" s="38" t="str">
+        <v>3.2</v>
+      </c>
+      <c r="K40" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D40),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>-</v>
+        <v>61.53846153846154</v>
+      </c>
+      <c r="L40" s="40" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3426,23 +3426,21 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="E41" s="6">
+        <v>2018</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>223</v>
-      </c>
+      <c r="G41" s="6"/>
       <c r="H41" s="6" t="s">
         <v>70</v>
       </c>
@@ -3464,21 +3462,23 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="E42" s="6">
+        <v>2018</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G42" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="H42" s="6" t="s">
         <v>70</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>48</v>
@@ -3508,11 +3508,11 @@
       <c r="D43" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>70</v>
+      <c r="E43" s="6">
+        <v>2018</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6" t="s">
@@ -3536,23 +3536,21 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="E44" s="6">
+        <v>2018</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>226</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G44" s="6"/>
       <c r="H44" s="6" t="s">
         <v>70</v>
       </c>
@@ -3568,58 +3566,96 @@
         <v>-</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
-      <c r="B46" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="1">
-        <f>COUNTIF(C4:C39,"Journal paper")</f>
-        <v>21</v>
+    <row r="45" spans="1:12">
+      <c r="A45" s="41">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="6">
+        <v>2017</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45" s="6" t="str">
+        <f>IFERROR(VLOOKUP(TRIM(D45),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="K45" s="38" t="str">
+        <f>IFERROR(VLOOKUP(TRIM(D45),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="B47" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1">
-        <f>COUNTIF(C4:C39,"Conference paper")</f>
-        <v>15</v>
+        <f>COUNTIF(C5:C40,"Journal paper")</f>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="B48" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="1">
+        <f>COUNTIF(C5:C40,"Conference paper")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="1">
-        <f>COUNTA(C4:C39)</f>
+      <c r="C49" s="1">
+        <f>COUNTA(C5:C40)</f>
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K44" xr:uid="{56C1F257-E950-4B3B-ADE8-D760AB7D592E}"/>
+  <autoFilter ref="A1:K45" xr:uid="{56C1F257-E950-4B3B-ADE8-D760AB7D592E}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L39" r:id="rId1" xr:uid="{C6790CD6-D13D-4C80-8C82-9003F1904202}"/>
-    <hyperlink ref="L34" r:id="rId2" xr:uid="{E3330F74-ED46-4B3E-979E-C7323BB48314}"/>
-    <hyperlink ref="L28" r:id="rId3" xr:uid="{673E413C-7D9F-4B1F-BC65-965E6BF5D000}"/>
-    <hyperlink ref="L27" r:id="rId4" xr:uid="{88F7E9A3-AF44-4E0A-9DF6-279464C4C3C9}"/>
-    <hyperlink ref="L22" r:id="rId5" xr:uid="{40E14E1D-14CE-4570-862A-A5D7AC30F0B2}"/>
-    <hyperlink ref="L21" r:id="rId6" xr:uid="{D9746F13-6151-49DE-ABE7-C51D1BD4A9EA}"/>
-    <hyperlink ref="L15" r:id="rId7" xr:uid="{024CA9B8-FFAD-47DA-B0C0-79AF99697F12}"/>
-    <hyperlink ref="L14" r:id="rId8" xr:uid="{3CC7D062-E67A-44BB-9D80-1429A7E7EEBD}"/>
-    <hyperlink ref="L12" r:id="rId9" xr:uid="{C02C700F-0DF4-4FCE-8A1A-40E63F51F280}"/>
-    <hyperlink ref="L7" r:id="rId10" xr:uid="{31DF79B9-C0C1-4376-81C0-EF30ABAC73ED}"/>
-    <hyperlink ref="L4" r:id="rId11" xr:uid="{3E480B2A-3737-410A-B52D-A086A52C0C6E}"/>
-    <hyperlink ref="L29" r:id="rId12" xr:uid="{99977EB8-6C01-4E56-968E-B02991915A6C}"/>
-    <hyperlink ref="L25" r:id="rId13" xr:uid="{276B7A09-55DD-4B09-B7BA-AB5FCBDA17B0}"/>
-    <hyperlink ref="L20" r:id="rId14" xr:uid="{C071C395-FB61-4CD2-9FFB-78DC13D3137E}"/>
-    <hyperlink ref="L18" r:id="rId15" xr:uid="{E1CB7D26-0C80-4595-A5E1-31AC40E69649}"/>
-    <hyperlink ref="L33" r:id="rId16" xr:uid="{E4F80D7A-94D6-4010-A900-706A4B48777E}"/>
-    <hyperlink ref="L23" r:id="rId17" xr:uid="{5FBC4CED-32D3-4B50-94ED-D24FD8CED33F}"/>
-    <hyperlink ref="L13" r:id="rId18" xr:uid="{34B64509-2ECE-4D50-AE59-10DD5AF18265}"/>
-    <hyperlink ref="L11" r:id="rId19" xr:uid="{6F281A96-A61D-4F5D-A97C-636160D8F727}"/>
-    <hyperlink ref="L6" r:id="rId20" xr:uid="{7D5A9BCC-1FED-4ED8-BB05-ABA7DD660FA3}"/>
-    <hyperlink ref="L5" r:id="rId21" xr:uid="{4D72EEE6-C634-4A71-AE2C-D812D5F150A2}"/>
+    <hyperlink ref="L40" r:id="rId1" xr:uid="{C6790CD6-D13D-4C80-8C82-9003F1904202}"/>
+    <hyperlink ref="L35" r:id="rId2" xr:uid="{E3330F74-ED46-4B3E-979E-C7323BB48314}"/>
+    <hyperlink ref="L29" r:id="rId3" xr:uid="{673E413C-7D9F-4B1F-BC65-965E6BF5D000}"/>
+    <hyperlink ref="L28" r:id="rId4" xr:uid="{88F7E9A3-AF44-4E0A-9DF6-279464C4C3C9}"/>
+    <hyperlink ref="L23" r:id="rId5" xr:uid="{40E14E1D-14CE-4570-862A-A5D7AC30F0B2}"/>
+    <hyperlink ref="L22" r:id="rId6" xr:uid="{D9746F13-6151-49DE-ABE7-C51D1BD4A9EA}"/>
+    <hyperlink ref="L16" r:id="rId7" xr:uid="{024CA9B8-FFAD-47DA-B0C0-79AF99697F12}"/>
+    <hyperlink ref="L15" r:id="rId8" xr:uid="{3CC7D062-E67A-44BB-9D80-1429A7E7EEBD}"/>
+    <hyperlink ref="L13" r:id="rId9" xr:uid="{C02C700F-0DF4-4FCE-8A1A-40E63F51F280}"/>
+    <hyperlink ref="L8" r:id="rId10" xr:uid="{31DF79B9-C0C1-4376-81C0-EF30ABAC73ED}"/>
+    <hyperlink ref="L5" r:id="rId11" xr:uid="{3E480B2A-3737-410A-B52D-A086A52C0C6E}"/>
+    <hyperlink ref="L30" r:id="rId12" xr:uid="{99977EB8-6C01-4E56-968E-B02991915A6C}"/>
+    <hyperlink ref="L26" r:id="rId13" xr:uid="{276B7A09-55DD-4B09-B7BA-AB5FCBDA17B0}"/>
+    <hyperlink ref="L21" r:id="rId14" xr:uid="{C071C395-FB61-4CD2-9FFB-78DC13D3137E}"/>
+    <hyperlink ref="L19" r:id="rId15" xr:uid="{E1CB7D26-0C80-4595-A5E1-31AC40E69649}"/>
+    <hyperlink ref="L34" r:id="rId16" xr:uid="{E4F80D7A-94D6-4010-A900-706A4B48777E}"/>
+    <hyperlink ref="L24" r:id="rId17" xr:uid="{5FBC4CED-32D3-4B50-94ED-D24FD8CED33F}"/>
+    <hyperlink ref="L14" r:id="rId18" xr:uid="{34B64509-2ECE-4D50-AE59-10DD5AF18265}"/>
+    <hyperlink ref="L12" r:id="rId19" xr:uid="{6F281A96-A61D-4F5D-A97C-636160D8F727}"/>
+    <hyperlink ref="L7" r:id="rId20" xr:uid="{7D5A9BCC-1FED-4ED8-BB05-ABA7DD660FA3}"/>
+    <hyperlink ref="L6" r:id="rId21" xr:uid="{4D72EEE6-C634-4A71-AE2C-D812D5F150A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3646,14 +3682,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53"/>
       <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="18" thickBot="1">
@@ -3716,7 +3752,7 @@
       <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="47" t="s">
         <v>62</v>
       </c>
       <c r="L3" s="26" t="s">
@@ -3751,7 +3787,7 @@
       <c r="H4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="48"/>
+      <c r="K4" s="49"/>
       <c r="L4" s="32" t="s">
         <v>103</v>
       </c>
@@ -3785,7 +3821,7 @@
       <c r="H5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="47" t="s">
         <v>104</v>
       </c>
       <c r="L5" s="20" t="s">
@@ -3820,7 +3856,7 @@
       <c r="H6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="47"/>
+      <c r="K6" s="48"/>
       <c r="L6" s="22" t="s">
         <v>105</v>
       </c>
@@ -3854,7 +3890,7 @@
       <c r="H7" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="48" t="s">
         <v>104</v>
       </c>
       <c r="L7" s="28" t="s">
@@ -3889,7 +3925,7 @@
       <c r="H8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="48"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="32" t="s">
         <v>107</v>
       </c>
@@ -3899,7 +3935,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="47" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="31" t="s">
@@ -3910,7 +3946,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="K10" s="47"/>
+      <c r="K10" s="48"/>
       <c r="L10" s="34" t="s">
         <v>108</v>
       </c>
@@ -3920,7 +3956,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="48" t="s">
         <v>15</v>
       </c>
       <c r="L11" s="23" t="s">
@@ -3931,7 +3967,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="K12" s="47"/>
+      <c r="K12" s="48"/>
       <c r="L12" s="22" t="s">
         <v>110</v>
       </c>
@@ -3941,7 +3977,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="K13" s="47" t="s">
+      <c r="K13" s="48" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="23" t="s">
@@ -3952,7 +3988,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="18" thickBot="1">
-      <c r="K14" s="48"/>
+      <c r="K14" s="49"/>
       <c r="L14" s="21" t="s">
         <v>111</v>
       </c>
@@ -3962,7 +3998,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="K15" s="46" t="s">
+      <c r="K15" s="47" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="20" t="s">
@@ -3973,7 +4009,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="K16" s="47"/>
+      <c r="K16" s="48"/>
       <c r="L16" s="22" t="s">
         <v>115</v>
       </c>
@@ -3983,7 +4019,7 @@
       </c>
     </row>
     <row r="17" spans="11:13">
-      <c r="K17" s="47" t="s">
+      <c r="K17" s="48" t="s">
         <v>9</v>
       </c>
       <c r="L17" s="28" t="s">
@@ -3994,7 +4030,7 @@
       </c>
     </row>
     <row r="18" spans="11:13" ht="18" thickBot="1">
-      <c r="K18" s="48"/>
+      <c r="K18" s="49"/>
       <c r="L18" s="32" t="s">
         <v>114</v>
       </c>
@@ -4004,7 +4040,7 @@
       </c>
     </row>
     <row r="19" spans="11:13">
-      <c r="K19" s="46" t="s">
+      <c r="K19" s="47" t="s">
         <v>5</v>
       </c>
       <c r="L19" s="20" t="s">
@@ -4015,7 +4051,7 @@
       </c>
     </row>
     <row r="20" spans="11:13">
-      <c r="K20" s="47"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="22" t="s">
         <v>119</v>
       </c>
@@ -4025,7 +4061,7 @@
       </c>
     </row>
     <row r="21" spans="11:13">
-      <c r="K21" s="47" t="s">
+      <c r="K21" s="48" t="s">
         <v>5</v>
       </c>
       <c r="L21" s="28" t="s">
@@ -4036,7 +4072,7 @@
       </c>
     </row>
     <row r="22" spans="11:13" ht="18" thickBot="1">
-      <c r="K22" s="49"/>
+      <c r="K22" s="50"/>
       <c r="L22" s="35" t="s">
         <v>118</v>
       </c>
@@ -4046,7 +4082,7 @@
       </c>
     </row>
     <row r="23" spans="11:13">
-      <c r="K23" s="46" t="s">
+      <c r="K23" s="47" t="s">
         <v>14</v>
       </c>
       <c r="L23" s="20" t="s">
@@ -4057,7 +4093,7 @@
       </c>
     </row>
     <row r="24" spans="11:13">
-      <c r="K24" s="47"/>
+      <c r="K24" s="48"/>
       <c r="L24" s="22" t="s">
         <v>121</v>
       </c>
@@ -4067,7 +4103,7 @@
       </c>
     </row>
     <row r="25" spans="11:13">
-      <c r="K25" s="47" t="s">
+      <c r="K25" s="48" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="28" t="s">
@@ -4078,7 +4114,7 @@
       </c>
     </row>
     <row r="26" spans="11:13">
-      <c r="K26" s="47"/>
+      <c r="K26" s="48"/>
       <c r="L26" s="34" t="s">
         <v>122</v>
       </c>
@@ -4088,7 +4124,7 @@
       </c>
     </row>
     <row r="27" spans="11:13">
-      <c r="K27" s="47" t="s">
+      <c r="K27" s="48" t="s">
         <v>14</v>
       </c>
       <c r="L27" s="23" t="s">
@@ -4099,7 +4135,7 @@
       </c>
     </row>
     <row r="28" spans="11:13">
-      <c r="K28" s="47"/>
+      <c r="K28" s="48"/>
       <c r="L28" s="22" t="s">
         <v>123</v>
       </c>
@@ -4109,7 +4145,7 @@
       </c>
     </row>
     <row r="29" spans="11:13">
-      <c r="K29" s="47" t="s">
+      <c r="K29" s="48" t="s">
         <v>14</v>
       </c>
       <c r="L29" s="23" t="s">
@@ -4120,7 +4156,7 @@
       </c>
     </row>
     <row r="30" spans="11:13" ht="18" thickBot="1">
-      <c r="K30" s="48"/>
+      <c r="K30" s="49"/>
       <c r="L30" s="21" t="s">
         <v>124</v>
       </c>

--- a/data/publications_source.xlsx
+++ b/data/publications_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seong-Yong Cheon\Dropbox\12. 연구실적 정리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74A6096-A4F2-4F69-8F72-F8F5847077E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7340B3B4-4BBA-436D-AA7A-4FBE95C845A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB1E42D7-1A00-48FC-902B-DD82F2A226BD}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="JCR update_25.09.03" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'논문 update_25.09.03'!$A$1:$K$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'논문 update_25.09.03'!$A$1:$K$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="227">
   <si>
     <t>0196-8904</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -947,14 +947,6 @@
   </si>
   <si>
     <t>622-629</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASHRAE conference</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Experimental Investigation of Vacuum-Based Membrane Dehumidification and Evaporative Cooling-Assisted Dedicated Outdoor Air System</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1500,9 +1492,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1522,6 +1511,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1840,7 +1832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C1F257-E950-4B3B-ADE8-D760AB7D592E}">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -1933,7 +1925,7 @@
         <f>IFERROR(VLOOKUP(TRIM(D2),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
         <v>2.3391812865497075</v>
       </c>
-      <c r="L2" s="46"/>
+      <c r="L2" s="53"/>
       <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18">
@@ -1950,8 +1942,8 @@
       <c r="D3" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="10">
-        <v>2025</v>
+      <c r="E3" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>166</v>
@@ -1971,7 +1963,7 @@
       <c r="K3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="46"/>
+      <c r="L3" s="53"/>
       <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:18">
@@ -1980,50 +1972,64 @@
         <v>3</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>48</v>
+        <v>138</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>50</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" s="10">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="46"/>
+        <v>167</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="10">
+        <v>4</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="10">
+        <f>IFERROR(VLOOKUP(TRIM(D4),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
+        <v>6.9</v>
+      </c>
+      <c r="K4" s="45">
+        <f>IFERROR(VLOOKUP(TRIM(D4),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
+        <v>4.9450549450549453</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>139</v>
+      </c>
       <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="44">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A5:A44" si="0">ROW()-1</f>
         <v>4</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H5" s="10">
         <v>4</v>
@@ -2033,24 +2039,24 @@
       </c>
       <c r="J5" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D5),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="K5" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D5),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>4.9450549450549453</v>
+        <v>5.4644808743169397</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="44">
-        <f t="shared" ref="A6:A45" si="0">ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>50</v>
@@ -2059,19 +2065,19 @@
         <v>5</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H6" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J6" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D6),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
@@ -2082,7 +2088,7 @@
         <v>5.4644808743169397</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R6" s="8"/>
     </row>
@@ -2092,81 +2098,75 @@
         <v>6</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H7" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J7" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D7),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="K7" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D7),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>5.4644808743169397</v>
+        <v>4.9450549450549453</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="R7" s="8"/>
+        <v>137</v>
+      </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="44">
+      <c r="A8" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>50</v>
+      <c r="B8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H8" s="10">
-        <v>4</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="10">
+        <v>46</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D8),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>6.9</v>
-      </c>
-      <c r="K8" s="45">
+        <v>-</v>
+      </c>
+      <c r="K8" s="38" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D8),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>4.9450549450549453</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>137</v>
+        <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2175,7 +2175,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>48</v>
@@ -2183,11 +2183,11 @@
       <c r="D9" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="6">
-        <v>2024</v>
+      <c r="E9" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
@@ -2210,22 +2210,24 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>162</v>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2024</v>
+      <c r="D10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G10" s="6"/>
+        <v>177</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="H10" s="6" t="s">
         <v>70</v>
       </c>
@@ -2242,41 +2244,44 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="41">
+      <c r="A11" s="44">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2023</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="6" t="str">
+      <c r="B11" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="10">
+        <v>5</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D11),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="K11" s="38" t="str">
+        <v>7.4</v>
+      </c>
+      <c r="K11" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D11),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>-</v>
+        <v>5.4644808743169397</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2285,39 +2290,39 @@
         <v>11</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H12" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>87</v>
       </c>
       <c r="J12" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D12),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="K12" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D12),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>5.4644808743169397</v>
+        <v>4.9450549450549453</v>
       </c>
       <c r="L12" s="40" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2326,39 +2331,39 @@
         <v>12</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>154</v>
+        <v>8</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>72</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H13" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>87</v>
       </c>
       <c r="J13" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D13),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>6.9</v>
+        <v>9.1</v>
       </c>
       <c r="K13" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D13),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>4.9450549450549453</v>
+        <v>17.647058823529413</v>
       </c>
       <c r="L13" s="40" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2367,39 +2372,39 @@
         <v>13</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H14" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>87</v>
       </c>
       <c r="J14" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D14),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>9.1</v>
+        <v>6.9</v>
       </c>
       <c r="K14" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D14),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>17.647058823529413</v>
+        <v>4.9450549450549453</v>
       </c>
       <c r="L14" s="40" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2408,7 +2413,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>50</v>
@@ -2417,16 +2422,16 @@
         <v>14</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H15" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>87</v>
@@ -2440,48 +2445,43 @@
         <v>4.9450549450549453</v>
       </c>
       <c r="L15" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="44">
+      <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="H16" s="10">
-        <v>3</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="10">
+      <c r="B16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D16),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>6.9</v>
-      </c>
-      <c r="K16" s="45">
+        <v>-</v>
+      </c>
+      <c r="K16" s="38" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D16),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>4.9450549450549453</v>
-      </c>
-      <c r="L16" s="40" t="s">
-        <v>134</v>
+        <v>-</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2490,7 +2490,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>48</v>
@@ -2498,11 +2498,11 @@
       <c r="D17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="6">
-        <v>2023</v>
+      <c r="E17" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6" t="s">
@@ -2521,118 +2521,123 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="41">
+      <c r="A18" s="44">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="6">
-        <v>2023</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" s="6" t="str">
+      <c r="B18" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" s="10">
+        <v>3</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D18),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="K18" s="38" t="str">
+        <v>10.9</v>
+      </c>
+      <c r="K18" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D18),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>-</v>
+        <v>2.3391812865497075</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="44">
+      <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="H19" s="10">
-        <v>3</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19" s="10">
+      <c r="B19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D19),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>10.9</v>
-      </c>
-      <c r="K19" s="45">
+        <v>-</v>
+      </c>
+      <c r="K19" s="38" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D19),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>2.3391812865497075</v>
-      </c>
-      <c r="L19" s="40" t="s">
-        <v>143</v>
+        <v>-</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="41">
+      <c r="A20" s="44">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="6">
-        <v>2023</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="6" t="str">
+      <c r="B20" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="H20" s="10">
+        <v>3</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D20),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="K20" s="38" t="str">
+        <v>10.9</v>
+      </c>
+      <c r="K20" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D20),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>-</v>
+        <v>2.3391812865497075</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2641,39 +2646,39 @@
         <v>20</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C21" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H21" s="10">
         <v>3</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J21" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D21),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>10.9</v>
+        <v>6.9</v>
       </c>
       <c r="K21" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D21),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>2.3391812865497075</v>
+        <v>4.9450549450549453</v>
       </c>
       <c r="L21" s="40" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2682,7 +2687,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>50</v>
@@ -2691,19 +2696,19 @@
         <v>14</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H22" s="10">
         <v>3</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J22" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D22),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
@@ -2714,7 +2719,7 @@
         <v>4.9450549450549453</v>
       </c>
       <c r="L22" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2723,195 +2728,195 @@
         <v>22</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H23" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J23" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D23),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>6.9</v>
+        <v>9.1</v>
       </c>
       <c r="K23" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D23),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>4.9450549450549453</v>
+        <v>17.647058823529413</v>
       </c>
       <c r="L23" s="40" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="44">
+      <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="H24" s="10">
-        <v>4</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J24" s="10">
+      <c r="B24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D24),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>9.1</v>
-      </c>
-      <c r="K24" s="45">
+        <v>-</v>
+      </c>
+      <c r="K24" s="38" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D24),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>17.647058823529413</v>
-      </c>
-      <c r="L24" s="40" t="s">
-        <v>145</v>
+        <v>-</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="41">
+      <c r="A25" s="44">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="6">
-        <v>2022</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="6" t="str">
+      <c r="B25" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="H25" s="10">
+        <v>3</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D25),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="K25" s="38" t="str">
+        <v>10.9</v>
+      </c>
+      <c r="K25" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D25),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>-</v>
+        <v>2.3391812865497075</v>
+      </c>
+      <c r="L25" s="40" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="44">
+      <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="H26" s="10">
-        <v>3</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J26" s="10">
+      <c r="B26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D26),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>10.9</v>
-      </c>
-      <c r="K26" s="45">
+        <v>-</v>
+      </c>
+      <c r="K26" s="38" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D26),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>2.3391812865497075</v>
-      </c>
-      <c r="L26" s="40" t="s">
-        <v>141</v>
+        <v>-</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="41">
+      <c r="A27" s="44">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="6">
-        <v>2022</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J27" s="6" t="str">
+      <c r="B27" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="H27" s="10">
+        <v>4</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D27),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="K27" s="38" t="str">
+        <v>6.9</v>
+      </c>
+      <c r="K27" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D27),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>-</v>
+        <v>4.9450549450549453</v>
+      </c>
+      <c r="L27" s="40" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2920,7 +2925,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>50</v>
@@ -2929,16 +2934,16 @@
         <v>14</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H28" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>87</v>
@@ -2952,7 +2957,7 @@
         <v>4.9450549450549453</v>
       </c>
       <c r="L28" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2961,80 +2966,77 @@
         <v>28</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H29" s="10">
         <v>3</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J29" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D29),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>6.9</v>
+        <v>10.9</v>
       </c>
       <c r="K29" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D29),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>4.9450549450549453</v>
+        <v>2.3391812865497075</v>
       </c>
       <c r="L29" s="40" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="44">
+      <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="H30" s="10">
-        <v>3</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="J30" s="10">
+      <c r="B30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D30),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>10.9</v>
-      </c>
-      <c r="K30" s="45">
+        <v>-</v>
+      </c>
+      <c r="K30" s="38" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D30),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>2.3391812865497075</v>
-      </c>
-      <c r="L30" s="40" t="s">
-        <v>140</v>
+        <v>-</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3043,7 +3045,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>48</v>
@@ -3051,14 +3053,14 @@
       <c r="D31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="6">
-        <v>2021</v>
+      <c r="E31" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>70</v>
@@ -3081,22 +3083,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="6">
-        <v>2021</v>
+        <v>59</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>70</v>
@@ -3114,41 +3116,44 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="41">
+      <c r="A33" s="44">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="6">
-        <v>2019</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J33" s="6" t="str">
+      <c r="B33" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="H33" s="10">
+        <v>3</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J33" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D33),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="K33" s="38" t="str">
+        <v>9.4</v>
+      </c>
+      <c r="K33" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D33),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>-</v>
+        <v>3.7974683544303796</v>
+      </c>
+      <c r="L33" s="40" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3157,80 +3162,75 @@
         <v>33</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H34" s="10">
         <v>3</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J34" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D34),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>9.4</v>
+        <v>6.9</v>
       </c>
       <c r="K34" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D34),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>3.7974683544303796</v>
+        <v>4.9450549450549453</v>
       </c>
       <c r="L34" s="40" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="44">
+      <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="H35" s="10">
-        <v>3</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J35" s="10">
+      <c r="B35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J35" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D35),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>6.9</v>
-      </c>
-      <c r="K35" s="45">
+        <v>-</v>
+      </c>
+      <c r="K35" s="38" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D35),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>4.9450549450549453</v>
-      </c>
-      <c r="L35" s="40" t="s">
-        <v>129</v>
+        <v>-</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3239,21 +3239,23 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="6">
-        <v>2019</v>
+        <v>53</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G36" s="6"/>
+        <v>217</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="H36" s="6" t="s">
         <v>70</v>
       </c>
@@ -3275,23 +3277,21 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="6">
-        <v>2019</v>
+        <v>61</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>218</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G37" s="6"/>
       <c r="H37" s="6" t="s">
         <v>70</v>
       </c>
@@ -3313,19 +3313,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="6">
-        <v>2019</v>
+        <v>59</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6" t="s">
@@ -3344,80 +3344,80 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="41">
+      <c r="A39" s="44">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="6">
-        <v>2019</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J39" s="6" t="str">
+      <c r="B39" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H39" s="10">
+        <v>3</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J39" s="10">
         <f>IFERROR(VLOOKUP(TRIM(D39),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="K39" s="38" t="str">
+        <v>3.2</v>
+      </c>
+      <c r="K39" s="45">
         <f>IFERROR(VLOOKUP(TRIM(D39),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>-</v>
+        <v>61.53846153846154</v>
+      </c>
+      <c r="L39" s="40" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="44">
+      <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="H40" s="10">
-        <v>3</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J40" s="10">
+      <c r="B40" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J40" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D40),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>3.2</v>
-      </c>
-      <c r="K40" s="45">
+        <v>-</v>
+      </c>
+      <c r="K40" s="38" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D40),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>61.53846153846154</v>
-      </c>
-      <c r="L40" s="40" t="s">
-        <v>127</v>
+        <v>-</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3426,21 +3426,23 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="6">
-        <v>2018</v>
+        <v>64</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="G41" s="6"/>
+      <c r="G41" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="H41" s="6" t="s">
         <v>70</v>
       </c>
@@ -3462,23 +3464,21 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="6">
-        <v>2018</v>
+        <v>65</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>223</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G42" s="6"/>
       <c r="H42" s="6" t="s">
         <v>70</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>48</v>
@@ -3508,11 +3508,11 @@
       <c r="D43" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="6">
-        <v>2018</v>
+      <c r="E43" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6" t="s">
@@ -3536,21 +3536,23 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" s="6">
-        <v>2018</v>
+        <v>66</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="G44" s="6"/>
+        <v>225</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>226</v>
+      </c>
       <c r="H44" s="6" t="s">
         <v>70</v>
       </c>
@@ -3566,96 +3568,58 @@
         <v>-</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="41">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="6">
-        <v>2017</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J45" s="6" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(D45),'JCR update_25.09.03'!$A$2:$B$20,2,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="K45" s="38" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(D45),'JCR update_25.09.03'!$A:$H,6,FALSE),"-")</f>
-        <v>-</v>
+    <row r="46" spans="1:12">
+      <c r="B46" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="1">
+        <f>COUNTIF(C4:C39,"Journal paper")</f>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="B47" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="1">
-        <f>COUNTIF(C5:C40,"Journal paper")</f>
-        <v>21</v>
+        <f>COUNTIF(C4:C39,"Conference paper")</f>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="B48" s="9" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C48" s="1">
-        <f>COUNTIF(C5:C40,"Conference paper")</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="1">
-        <f>COUNTA(C5:C40)</f>
+        <f>COUNTA(C4:C39)</f>
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K45" xr:uid="{56C1F257-E950-4B3B-ADE8-D760AB7D592E}"/>
+  <autoFilter ref="A1:K44" xr:uid="{56C1F257-E950-4B3B-ADE8-D760AB7D592E}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L40" r:id="rId1" xr:uid="{C6790CD6-D13D-4C80-8C82-9003F1904202}"/>
-    <hyperlink ref="L35" r:id="rId2" xr:uid="{E3330F74-ED46-4B3E-979E-C7323BB48314}"/>
-    <hyperlink ref="L29" r:id="rId3" xr:uid="{673E413C-7D9F-4B1F-BC65-965E6BF5D000}"/>
-    <hyperlink ref="L28" r:id="rId4" xr:uid="{88F7E9A3-AF44-4E0A-9DF6-279464C4C3C9}"/>
-    <hyperlink ref="L23" r:id="rId5" xr:uid="{40E14E1D-14CE-4570-862A-A5D7AC30F0B2}"/>
-    <hyperlink ref="L22" r:id="rId6" xr:uid="{D9746F13-6151-49DE-ABE7-C51D1BD4A9EA}"/>
-    <hyperlink ref="L16" r:id="rId7" xr:uid="{024CA9B8-FFAD-47DA-B0C0-79AF99697F12}"/>
-    <hyperlink ref="L15" r:id="rId8" xr:uid="{3CC7D062-E67A-44BB-9D80-1429A7E7EEBD}"/>
-    <hyperlink ref="L13" r:id="rId9" xr:uid="{C02C700F-0DF4-4FCE-8A1A-40E63F51F280}"/>
-    <hyperlink ref="L8" r:id="rId10" xr:uid="{31DF79B9-C0C1-4376-81C0-EF30ABAC73ED}"/>
-    <hyperlink ref="L5" r:id="rId11" xr:uid="{3E480B2A-3737-410A-B52D-A086A52C0C6E}"/>
-    <hyperlink ref="L30" r:id="rId12" xr:uid="{99977EB8-6C01-4E56-968E-B02991915A6C}"/>
-    <hyperlink ref="L26" r:id="rId13" xr:uid="{276B7A09-55DD-4B09-B7BA-AB5FCBDA17B0}"/>
-    <hyperlink ref="L21" r:id="rId14" xr:uid="{C071C395-FB61-4CD2-9FFB-78DC13D3137E}"/>
-    <hyperlink ref="L19" r:id="rId15" xr:uid="{E1CB7D26-0C80-4595-A5E1-31AC40E69649}"/>
-    <hyperlink ref="L34" r:id="rId16" xr:uid="{E4F80D7A-94D6-4010-A900-706A4B48777E}"/>
-    <hyperlink ref="L24" r:id="rId17" xr:uid="{5FBC4CED-32D3-4B50-94ED-D24FD8CED33F}"/>
-    <hyperlink ref="L14" r:id="rId18" xr:uid="{34B64509-2ECE-4D50-AE59-10DD5AF18265}"/>
-    <hyperlink ref="L12" r:id="rId19" xr:uid="{6F281A96-A61D-4F5D-A97C-636160D8F727}"/>
-    <hyperlink ref="L7" r:id="rId20" xr:uid="{7D5A9BCC-1FED-4ED8-BB05-ABA7DD660FA3}"/>
-    <hyperlink ref="L6" r:id="rId21" xr:uid="{4D72EEE6-C634-4A71-AE2C-D812D5F150A2}"/>
+    <hyperlink ref="L39" r:id="rId1" xr:uid="{C6790CD6-D13D-4C80-8C82-9003F1904202}"/>
+    <hyperlink ref="L34" r:id="rId2" xr:uid="{E3330F74-ED46-4B3E-979E-C7323BB48314}"/>
+    <hyperlink ref="L28" r:id="rId3" xr:uid="{673E413C-7D9F-4B1F-BC65-965E6BF5D000}"/>
+    <hyperlink ref="L27" r:id="rId4" xr:uid="{88F7E9A3-AF44-4E0A-9DF6-279464C4C3C9}"/>
+    <hyperlink ref="L22" r:id="rId5" xr:uid="{40E14E1D-14CE-4570-862A-A5D7AC30F0B2}"/>
+    <hyperlink ref="L21" r:id="rId6" xr:uid="{D9746F13-6151-49DE-ABE7-C51D1BD4A9EA}"/>
+    <hyperlink ref="L15" r:id="rId7" xr:uid="{024CA9B8-FFAD-47DA-B0C0-79AF99697F12}"/>
+    <hyperlink ref="L14" r:id="rId8" xr:uid="{3CC7D062-E67A-44BB-9D80-1429A7E7EEBD}"/>
+    <hyperlink ref="L12" r:id="rId9" xr:uid="{C02C700F-0DF4-4FCE-8A1A-40E63F51F280}"/>
+    <hyperlink ref="L7" r:id="rId10" xr:uid="{31DF79B9-C0C1-4376-81C0-EF30ABAC73ED}"/>
+    <hyperlink ref="L4" r:id="rId11" xr:uid="{3E480B2A-3737-410A-B52D-A086A52C0C6E}"/>
+    <hyperlink ref="L29" r:id="rId12" xr:uid="{99977EB8-6C01-4E56-968E-B02991915A6C}"/>
+    <hyperlink ref="L25" r:id="rId13" xr:uid="{276B7A09-55DD-4B09-B7BA-AB5FCBDA17B0}"/>
+    <hyperlink ref="L20" r:id="rId14" xr:uid="{C071C395-FB61-4CD2-9FFB-78DC13D3137E}"/>
+    <hyperlink ref="L18" r:id="rId15" xr:uid="{E1CB7D26-0C80-4595-A5E1-31AC40E69649}"/>
+    <hyperlink ref="L33" r:id="rId16" xr:uid="{E4F80D7A-94D6-4010-A900-706A4B48777E}"/>
+    <hyperlink ref="L23" r:id="rId17" xr:uid="{5FBC4CED-32D3-4B50-94ED-D24FD8CED33F}"/>
+    <hyperlink ref="L13" r:id="rId18" xr:uid="{34B64509-2ECE-4D50-AE59-10DD5AF18265}"/>
+    <hyperlink ref="L11" r:id="rId19" xr:uid="{6F281A96-A61D-4F5D-A97C-636160D8F727}"/>
+    <hyperlink ref="L6" r:id="rId20" xr:uid="{7D5A9BCC-1FED-4ED8-BB05-ABA7DD660FA3}"/>
+    <hyperlink ref="L5" r:id="rId21" xr:uid="{4D72EEE6-C634-4A71-AE2C-D812D5F150A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3682,14 +3646,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
       <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="18" thickBot="1">
@@ -3752,7 +3716,7 @@
       <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="46" t="s">
         <v>62</v>
       </c>
       <c r="L3" s="26" t="s">
@@ -3787,7 +3751,7 @@
       <c r="H4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="49"/>
+      <c r="K4" s="48"/>
       <c r="L4" s="32" t="s">
         <v>103</v>
       </c>
@@ -3821,7 +3785,7 @@
       <c r="H5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="47" t="s">
+      <c r="K5" s="46" t="s">
         <v>104</v>
       </c>
       <c r="L5" s="20" t="s">
@@ -3856,7 +3820,7 @@
       <c r="H6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="22" t="s">
         <v>105</v>
       </c>
@@ -3890,7 +3854,7 @@
       <c r="H7" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>104</v>
       </c>
       <c r="L7" s="28" t="s">
@@ -3925,7 +3889,7 @@
       <c r="H8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="49"/>
+      <c r="K8" s="48"/>
       <c r="L8" s="32" t="s">
         <v>107</v>
       </c>
@@ -3935,7 +3899,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="46" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="31" t="s">
@@ -3946,7 +3910,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="K10" s="48"/>
+      <c r="K10" s="47"/>
       <c r="L10" s="34" t="s">
         <v>108</v>
       </c>
@@ -3956,7 +3920,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="K11" s="48" t="s">
+      <c r="K11" s="47" t="s">
         <v>15</v>
       </c>
       <c r="L11" s="23" t="s">
@@ -3967,7 +3931,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="K12" s="48"/>
+      <c r="K12" s="47"/>
       <c r="L12" s="22" t="s">
         <v>110</v>
       </c>
@@ -3977,7 +3941,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="K13" s="48" t="s">
+      <c r="K13" s="47" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="23" t="s">
@@ -3988,7 +3952,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="18" thickBot="1">
-      <c r="K14" s="49"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="21" t="s">
         <v>111</v>
       </c>
@@ -3998,7 +3962,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="46" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="20" t="s">
@@ -4009,7 +3973,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="K16" s="48"/>
+      <c r="K16" s="47"/>
       <c r="L16" s="22" t="s">
         <v>115</v>
       </c>
@@ -4019,7 +3983,7 @@
       </c>
     </row>
     <row r="17" spans="11:13">
-      <c r="K17" s="48" t="s">
+      <c r="K17" s="47" t="s">
         <v>9</v>
       </c>
       <c r="L17" s="28" t="s">
@@ -4030,7 +3994,7 @@
       </c>
     </row>
     <row r="18" spans="11:13" ht="18" thickBot="1">
-      <c r="K18" s="49"/>
+      <c r="K18" s="48"/>
       <c r="L18" s="32" t="s">
         <v>114</v>
       </c>
@@ -4040,7 +4004,7 @@
       </c>
     </row>
     <row r="19" spans="11:13">
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="46" t="s">
         <v>5</v>
       </c>
       <c r="L19" s="20" t="s">
@@ -4051,7 +4015,7 @@
       </c>
     </row>
     <row r="20" spans="11:13">
-      <c r="K20" s="48"/>
+      <c r="K20" s="47"/>
       <c r="L20" s="22" t="s">
         <v>119</v>
       </c>
@@ -4061,7 +4025,7 @@
       </c>
     </row>
     <row r="21" spans="11:13">
-      <c r="K21" s="48" t="s">
+      <c r="K21" s="47" t="s">
         <v>5</v>
       </c>
       <c r="L21" s="28" t="s">
@@ -4072,7 +4036,7 @@
       </c>
     </row>
     <row r="22" spans="11:13" ht="18" thickBot="1">
-      <c r="K22" s="50"/>
+      <c r="K22" s="49"/>
       <c r="L22" s="35" t="s">
         <v>118</v>
       </c>
@@ -4082,7 +4046,7 @@
       </c>
     </row>
     <row r="23" spans="11:13">
-      <c r="K23" s="47" t="s">
+      <c r="K23" s="46" t="s">
         <v>14</v>
       </c>
       <c r="L23" s="20" t="s">
@@ -4093,7 +4057,7 @@
       </c>
     </row>
     <row r="24" spans="11:13">
-      <c r="K24" s="48"/>
+      <c r="K24" s="47"/>
       <c r="L24" s="22" t="s">
         <v>121</v>
       </c>
@@ -4103,7 +4067,7 @@
       </c>
     </row>
     <row r="25" spans="11:13">
-      <c r="K25" s="48" t="s">
+      <c r="K25" s="47" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="28" t="s">
@@ -4114,7 +4078,7 @@
       </c>
     </row>
     <row r="26" spans="11:13">
-      <c r="K26" s="48"/>
+      <c r="K26" s="47"/>
       <c r="L26" s="34" t="s">
         <v>122</v>
       </c>
@@ -4124,7 +4088,7 @@
       </c>
     </row>
     <row r="27" spans="11:13">
-      <c r="K27" s="48" t="s">
+      <c r="K27" s="47" t="s">
         <v>14</v>
       </c>
       <c r="L27" s="23" t="s">
@@ -4135,7 +4099,7 @@
       </c>
     </row>
     <row r="28" spans="11:13">
-      <c r="K28" s="48"/>
+      <c r="K28" s="47"/>
       <c r="L28" s="22" t="s">
         <v>123</v>
       </c>
@@ -4145,7 +4109,7 @@
       </c>
     </row>
     <row r="29" spans="11:13">
-      <c r="K29" s="48" t="s">
+      <c r="K29" s="47" t="s">
         <v>14</v>
       </c>
       <c r="L29" s="23" t="s">
@@ -4156,7 +4120,7 @@
       </c>
     </row>
     <row r="30" spans="11:13" ht="18" thickBot="1">
-      <c r="K30" s="49"/>
+      <c r="K30" s="48"/>
       <c r="L30" s="21" t="s">
         <v>124</v>
       </c>
